--- a/backend/uploads/processed_products.xlsx
+++ b/backend/uploads/processed_products.xlsx
@@ -508,14 +508,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>iphone 16 case otterbox</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>iphone 16 case magsafe</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>iphone 16 case otterbox</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>iphone 16 case clear</t>
@@ -548,12 +548,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>iphone 16 case with stand</t>
+          <t>iphone 16 case pink</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>iphone 16 case | iphone 16 case magsafe | iphone 16 case otterbox | iphone 16 case clear | iphone 16 case cute | iphone 16 case protective | iphone 16 case wallet | iphone 16 case with screen protector | iphone 16 case with card holder | iphone 16 case with stand</t>
+          <t>iphone 16 case | iphone 16 case otterbox | iphone 16 case magsafe | iphone 16 case clear | iphone 16 case cute | iphone 16 case protective | iphone 16 case wallet | iphone 16 case with screen protector | iphone 16 case with card holder | iphone 16 case pink</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>iphone 15 pro unlocked</t>
+          <t>iphone 15 pro case magsafe</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>iphone 15 pro max case | iphone 15 pro max screen protector | iphone 15 pro max | iphone 15 pro | iphone 15 pro case | iphone 15 pro screen protector | iphone 15 pro max privacy screen protector | iphone 15 pro max unlocked | iphone 15 pro max case magsafe | iphone 15 pro unlocked</t>
+          <t>iphone 15 pro max case | iphone 15 pro max screen protector | iphone 15 pro max | iphone 15 pro | iphone 15 pro case | iphone 15 pro screen protector | iphone 15 pro max privacy screen protector | iphone 15 pro max unlocked | iphone 15 pro max case magsafe | iphone 15 pro case magsafe</t>
         </is>
       </c>
     </row>
@@ -637,14 +637,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>iphone 14 case</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>iphone 14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>iphone 14 case</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>iphone 14 pro</t>
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>iphone 14 pro max case | iphone 14 pro max | iphone 14 | iphone 14 case | iphone 14 pro | iphone 14 pro max screen protector | iphone 14 plus | iphone 14 pro case | iphone 14 pro screen protector | iphone 14 screen protector</t>
+          <t>iphone 14 pro max case | iphone 14 pro max | iphone 14 case | iphone 14 | iphone 14 pro | iphone 14 pro max screen protector | iphone 14 plus | iphone 14 pro case | iphone 14 pro screen protector | iphone 14 screen protector</t>
         </is>
       </c>
     </row>
@@ -699,19 +699,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>iphone case covers camera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>iphone case cover se</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>iphone case cover 15 pro max</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>iphone case cover se</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>iphone case covers camera</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>iphone case cover for 14 pro max</t>
@@ -739,7 +739,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>iphone case cover | iphone case cover with card holder | iphone case cover 15 pro max | iphone case cover se | iphone case covers camera | iphone case cover for 14 pro max | iphone case cover 14 | iphone case covering camera | iphone case cover 16 | iphone case cover 17</t>
+          <t>iphone case cover | iphone case cover with card holder | iphone case covers camera | iphone case cover se | iphone case cover 15 pro max | iphone case cover for 14 pro max | iphone case cover 14 | iphone case covering camera | iphone case cover 16 | iphone case cover 17</t>
         </is>
       </c>
     </row>
@@ -766,14 +766,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>iphone 11 case otterbox</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>iphone 11 case clear</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>iphone 11 case otterbox</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>iphone 11 case with card holder</t>
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>iphone 11 case | iphone 11 case with screen protector | iphone 11 case wallet | iphone 11 case clear | iphone 11 case otterbox | iphone 11 case with card holder | iphone 11 case cute | iphone 11 case magsafe | iphone 11 case with stand | iphone 11 case protective</t>
+          <t>iphone 11 case | iphone 11 case with screen protector | iphone 11 case wallet | iphone 11 case otterbox | iphone 11 case clear | iphone 11 case with card holder | iphone 11 case cute | iphone 11 case magsafe | iphone 11 case with stand | iphone 11 case protective</t>
         </is>
       </c>
     </row>
